--- a/results/epsilon/chungtoi/ChungToi_EpsilonResults_Wins_Comparison_Test.xlsx
+++ b/results/epsilon/chungtoi/ChungToi_EpsilonResults_Wins_Comparison_Test.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Win Rates" sheetId="3" r:id="rId1"/>
     <sheet name="Graph" sheetId="4" r:id="rId2"/>
     <sheet name="Graph (no title)" sheetId="5" r:id="rId3"/>
+    <sheet name="Wide Graph (no title)" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -136,7 +137,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5299,11 +5299,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="178946816"/>
-        <c:axId val="178948736"/>
+        <c:axId val="181048448"/>
+        <c:axId val="181050368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178946816"/>
+        <c:axId val="181048448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5325,14 +5325,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178948736"/>
+        <c:crossAx val="181050368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5342,7 +5341,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178948736"/>
+        <c:axId val="181050368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5366,21 +5365,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178946816"/>
+        <c:crossAx val="181048448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5429,6 +5426,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -6072,6 +6076,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -6715,6 +6726,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -7358,6 +7376,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -8001,6 +8026,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -8644,6 +8676,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -10569,11 +10608,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="244300032"/>
-        <c:axId val="244302208"/>
+        <c:axId val="225166848"/>
+        <c:axId val="225168384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="244300032"/>
+        <c:axId val="225166848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10583,7 +10622,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244302208"/>
+        <c:crossAx val="225168384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10593,7 +10632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244302208"/>
+        <c:axId val="225168384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10605,7 +10644,5281 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244300032"/>
+        <c:crossAx val="225166848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Win Rates'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Win Rates'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Win Rates'!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.3876</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4587</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4496</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45679999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46389999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4451</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4425</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4612</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.45950000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.47589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.44850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.44259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.47920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.46389999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.46460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.46510000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.46229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.44290000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.45229999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.43780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.4768</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.45710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.46089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.45290000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.45190000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.44359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.46400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.46429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.43890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.44040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45129999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.44390000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.43680000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.45269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.43640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.43530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.42130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.44259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.44169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.4345</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.4239</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.42249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.4269</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.42659999999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.42920000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.4224</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.42230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.42799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.41749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.42970000000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.42209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.42470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.42749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.43190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.42720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.4219</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.41959999999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.42449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.42159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.43009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.41320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.4178</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.41020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.42859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.41949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.41549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.42299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.4209</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.42409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.41849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.40710000000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.40870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.42059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.42130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.42230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.41360000000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.40570000000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.41589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.41689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.40970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.41520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.40899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.39829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.41239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.4148</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.41020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.40960000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Win Rates'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Win Rates'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Win Rates'!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.40479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.41889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43269999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44340000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.43980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.42859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.437</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.42980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.43140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.4299</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.42680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.44309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.43759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.42520000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.43459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.4451</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.44419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.42530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.42849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.43869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.42520000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.43530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.43419999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.43730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.43009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.42809999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.43049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.41810000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.42380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.42599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.43390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.4209</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.42449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.43319999999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.4259</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.42299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.42670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.41539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.43259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.41949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.43030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.41639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.41370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.42330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.43230000000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.4244</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.42480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.41649999999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.41959999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.42880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.42859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.4239</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.42049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.42320000000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.42270000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.42120000000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.42520000000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.4219</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.41720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.41620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.41839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.41039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.42530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.41839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.42249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.4083</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.4108</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.41849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.42359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.42180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.4163</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.41010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.40899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.41170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.40920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.41110000000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.42359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.41770000000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.41499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.41189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.41360000000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.4168</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.41389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.4073</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.41420000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Win Rates'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Win Rates'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Win Rates'!$D$2:$D$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.39219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4461</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46750000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41210000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43070000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45390000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.46060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.46939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4657</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.46870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.47649999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.48199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.46850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.46939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.46229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.47049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.46870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.47070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.47160000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.47070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.4703</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.47120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.47870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.4743</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.46710000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.46029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.47320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.45669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.46839999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.46210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.46429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.45839999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.45679999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.45019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.45400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.4642</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.45829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46579999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.45269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.45850000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.45929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.44390000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.44080000000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.43769999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.45760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.45650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.44109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.45340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.44319999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.43580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.43569999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.44169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.43809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.43430000000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.44790000000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.45129999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.4335</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.43940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.43340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.43359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.43869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.42870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.4335</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.43120000000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.441</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.43080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.43180000000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.42859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.42299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.41860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.4244</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.42670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.42709999999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.42209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.42020000000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.40949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.42770000000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.41770000000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.41060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.42799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.4173</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.4158</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.4098</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.41049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.41660000000000003</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.41460000000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.42920000000000003</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.41860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.41310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.41520000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Win Rates'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Win Rates'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Win Rates'!$E$2:$E$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45850000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4874</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58240000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58140000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.62409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.60850000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.60140000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.59809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.58909999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.58450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5907</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.58679999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.60880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.60419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.60319999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.60019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.59719999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.58579999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.57820000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.59040000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.5675</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.58599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.57550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.57940000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.57550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.57940000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.58789999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.57469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.5615</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.55840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.55930000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.56540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.56579999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.55779999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.54690000000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.55259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.54430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.54200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.54179999999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.55159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5373</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.52710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.53720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52990000000000004</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.5363</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.5302</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.52529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.52080000000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.51790000000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.5232</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.51380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.51190000000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.50219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.4955</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.4955</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.50219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.49519999999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.49419999999999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.50260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.48620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.48820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.47589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.4864</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.48299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.48349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.47460000000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.48020000000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.47420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.45860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.46379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.46850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.4526</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.46150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.45190000000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.45190000000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.44440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.44869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.44040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.44240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.43190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.44019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.42880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.42580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.42420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.42749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.42070000000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.42009999999999997</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.4249</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.41170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.40500000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Win Rates'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>160k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Win Rates'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Win Rates'!$F$2:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.38340000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56069999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64159999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63270000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66610000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.69189999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6613</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.67259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.64449999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.66590000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65780000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.66679999999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.67230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.65300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.67079999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.65629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.63719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.65129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.627</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.65580000000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.63739999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.66110000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.63759999999999994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.63929999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.61860000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.64290000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.621</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.63009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.623</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.62450000000000006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.63129999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.62250000000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.62770000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.5988</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.61040000000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.60799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.59660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.61370000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.59930000000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.59299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.59309999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.6028</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.58950000000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.58230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.59189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.58169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.56820000000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.57779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.5736</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.55879999999999996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.55889999999999995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.54759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.54620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.54759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.54420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.53710000000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.53900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.53769999999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.5323</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.52210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.5252</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.52549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.51139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.50470000000000004</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.51270000000000004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.50849999999999995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.49719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.49709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.49130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.48730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.4899</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.4733</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.48259999999999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.47060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.46329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.46300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.46189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.46810000000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.45550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.4582</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.44359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.44069999999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.44359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.43490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.42449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.4173</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.4148</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.41010000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Win Rates'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>320k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Win Rates'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Win Rates'!$G$2:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.39710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56730000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57930000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5887</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59209999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61370000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61160000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62849999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.63200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.62360000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.62170000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.62519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.62890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.62370000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.6179</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.61629999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.61450000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.61460000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.62060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.62549999999999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.61480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.61719999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.6038</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60940000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.60950000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.60050000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.60919999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.59860000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.60170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.60660000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.59970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.59289999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.58620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.57440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.59530000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.59150000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.58620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.57140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.57599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.57389999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.57520000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.56510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.57550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.57189999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.55820000000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.56430000000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55879999999999996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55289999999999995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.5444</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.54620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.54890000000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.54020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.54279999999999995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.54790000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.53949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.54079999999999995</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.52890000000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.53779999999999994</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.54100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.51700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.5181</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.52080000000000004</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.51429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.50919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.50729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.50870000000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.50629999999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.51190000000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.49769999999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.50139999999999996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.50660000000000005</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.49969999999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.49690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.48770000000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.50429999999999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.47870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.47860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.4753</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.47220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.46010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.46579999999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.46079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.46560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.45729999999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.44890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.44529999999999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.4496</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.43159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.432</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.42849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.42130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.42070000000000002</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.4108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Win Rates'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>640k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Win Rates'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Win Rates'!$H$2:$H$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.44479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53090000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59460000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62849999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67390000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66979999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67510000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66679999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6724</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.67689999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.67130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.65490000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.65839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.66339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.66739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.64829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.66359999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.64529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.65980000000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.65339999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.64029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.6492</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.64380000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.6371</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.63480000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.63560000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.63060000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.64039999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.63470000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.62239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61660000000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.62690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.61760000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.61939999999999995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.61499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.62460000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.61350000000000005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.60980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.6089</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.6079</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.60799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.60140000000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.59140000000000004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.58579999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.59550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.5867</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.58760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.59009999999999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.58450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.58489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.58009999999999995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.56530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.56710000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.56020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.56540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.55720000000000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.56110000000000004</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.55549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.55710000000000004</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.55530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.55730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.54890000000000005</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.55030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.53710000000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.53369999999999995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.53500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.5232</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.5242</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.52459999999999996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.52039999999999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.5252</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.51259999999999994</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.50609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.51429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.49669999999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.50009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.49070000000000003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.48949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.47799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.47260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.46970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.46310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.47160000000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.44829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.4541</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.44400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.43070000000000003</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.43109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.43059999999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.41349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.41560000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Win Rates'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1280k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Win Rates'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Win Rates'!$I$2:$I$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.39450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69279999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73429999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72609999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.755</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74680000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73340000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72340000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75349999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.73450000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.76290000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.71220000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.74460000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.70609999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72940000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.71079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.75139999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.72450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.71160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.71120000000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.73380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.72119999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.70489999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.70550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.7046</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.69589999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.69889999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.70350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.70979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.68689999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.68710000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.70550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.68730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.67210000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.68920000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.68369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.67130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.67620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.67090000000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.65969999999999995</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.65310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.6522</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.65359999999999996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.64959999999999996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.65190000000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.6401</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.63290000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.626</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.63919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.63949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.626</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62319999999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.61560000000000004</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.61240000000000006</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.61770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.6109</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.60529999999999995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.59399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.58379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.59250000000000003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.58760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.58150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.57750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.56879999999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.56310000000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.56310000000000004</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.5524</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.55959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.55059999999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.54500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.54020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.53010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.52439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.52439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.51639999999999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.51529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.49230000000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.49380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.48020000000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.4773</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.48170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.46460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.46329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.44090000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.44159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.43780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.41849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.4103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="201626368"/>
+        <c:axId val="201627904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="201626368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="201627904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:tickMarkSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="201627904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="201626368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10676,6 +15989,43 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
@@ -13983,8 +19333,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
